--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>预约时间</t>
+  </si>
+  <si>
+    <t>预约时间时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appUnix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,95 +629,106 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
     </row>
